--- a/IPA Live/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
+++ b/IPA Live/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85470167-BCE9-3F4A-B993-3C52DED9504C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB5F6EA-4ED6-FF4E-986D-D3DBDCC59777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>Mo</t>
   </si>
@@ -188,6 +188,12 @@
   <si>
     <t>Sollzeit</t>
   </si>
+  <si>
+    <t>Nicht benötigt</t>
+  </si>
+  <si>
+    <t>Mehr benötigt</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +353,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="47">
     <border>
@@ -954,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1085,19 +1109,60 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,28 +1174,16 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,40 +1192,64 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1181,56 +1258,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1548,10 +1583,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BY83"/>
+  <dimension ref="A1:BY85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE37" sqref="AE37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI48" sqref="BI48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1569,240 +1604,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="118" t="s">
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="118" t="s">
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="118" t="s">
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="118" t="s">
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="118" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="118" t="s">
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="118" t="s">
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="146"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="118" t="s">
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="146"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="120"/>
-      <c r="AM1" s="118" t="s">
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="146"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="120"/>
-      <c r="AQ1" s="118" t="s">
+      <c r="AN1" s="146"/>
+      <c r="AO1" s="146"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="119"/>
-      <c r="AS1" s="119"/>
-      <c r="AT1" s="120"/>
-      <c r="AU1" s="128" t="s">
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="146"/>
+      <c r="AT1" s="147"/>
+      <c r="AU1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="129"/>
-      <c r="AW1" s="129"/>
-      <c r="AX1" s="130"/>
-      <c r="AY1" s="128" t="s">
+      <c r="AV1" s="140"/>
+      <c r="AW1" s="140"/>
+      <c r="AX1" s="141"/>
+      <c r="AY1" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="AZ1" s="129"/>
-      <c r="BA1" s="129"/>
-      <c r="BB1" s="130"/>
-      <c r="BC1" s="128" t="s">
+      <c r="AZ1" s="140"/>
+      <c r="BA1" s="140"/>
+      <c r="BB1" s="141"/>
+      <c r="BC1" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="BD1" s="129"/>
-      <c r="BE1" s="129"/>
-      <c r="BF1" s="130"/>
-      <c r="BG1" s="158" t="s">
+      <c r="BD1" s="140"/>
+      <c r="BE1" s="140"/>
+      <c r="BF1" s="141"/>
+      <c r="BG1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" s="119"/>
-      <c r="BI1" s="119"/>
-      <c r="BJ1" s="120"/>
-      <c r="BK1" s="128" t="s">
+      <c r="BH1" s="146"/>
+      <c r="BI1" s="146"/>
+      <c r="BJ1" s="147"/>
+      <c r="BK1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" s="129"/>
-      <c r="BM1" s="129"/>
-      <c r="BN1" s="130"/>
-      <c r="BO1" s="128" t="s">
+      <c r="BL1" s="140"/>
+      <c r="BM1" s="140"/>
+      <c r="BN1" s="141"/>
+      <c r="BO1" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="129"/>
-      <c r="BQ1" s="129"/>
-      <c r="BR1" s="130"/>
-      <c r="BS1" s="128" t="s">
+      <c r="BP1" s="140"/>
+      <c r="BQ1" s="140"/>
+      <c r="BR1" s="141"/>
+      <c r="BS1" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="BT1" s="129"/>
-      <c r="BU1" s="129"/>
-      <c r="BV1" s="130"/>
+      <c r="BT1" s="140"/>
+      <c r="BU1" s="140"/>
+      <c r="BV1" s="141"/>
       <c r="BW1" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="131">
+      <c r="A2" s="175"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="166">
         <v>43948</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="131">
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="166">
         <v>43949</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="131">
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="166">
         <v>43950</v>
       </c>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="131">
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="166">
         <v>43951</v>
       </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="131">
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="166">
         <v>43952</v>
       </c>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="131">
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="166">
         <v>43953</v>
       </c>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="131">
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="166">
         <v>43954</v>
       </c>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="131">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="166">
         <v>43955</v>
       </c>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="132"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="131">
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="166">
         <v>43956</v>
       </c>
-      <c r="AJ2" s="132"/>
-      <c r="AK2" s="132"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="131">
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="166">
         <v>43957</v>
       </c>
-      <c r="AN2" s="132"/>
-      <c r="AO2" s="132"/>
-      <c r="AP2" s="133"/>
-      <c r="AQ2" s="131">
+      <c r="AN2" s="149"/>
+      <c r="AO2" s="149"/>
+      <c r="AP2" s="150"/>
+      <c r="AQ2" s="166">
         <v>43958</v>
       </c>
-      <c r="AR2" s="132"/>
-      <c r="AS2" s="132"/>
-      <c r="AT2" s="133"/>
-      <c r="AU2" s="121">
+      <c r="AR2" s="149"/>
+      <c r="AS2" s="149"/>
+      <c r="AT2" s="150"/>
+      <c r="AU2" s="142">
         <v>43959</v>
       </c>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="121">
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="143"/>
+      <c r="AX2" s="144"/>
+      <c r="AY2" s="142">
         <v>43960</v>
       </c>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="123"/>
-      <c r="BC2" s="121">
+      <c r="AZ2" s="143"/>
+      <c r="BA2" s="143"/>
+      <c r="BB2" s="144"/>
+      <c r="BC2" s="142">
         <v>43961</v>
       </c>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="122"/>
-      <c r="BF2" s="123"/>
-      <c r="BG2" s="159">
+      <c r="BD2" s="143"/>
+      <c r="BE2" s="143"/>
+      <c r="BF2" s="144"/>
+      <c r="BG2" s="148">
         <v>43962</v>
       </c>
-      <c r="BH2" s="132"/>
-      <c r="BI2" s="132"/>
-      <c r="BJ2" s="133"/>
-      <c r="BK2" s="121">
+      <c r="BH2" s="149"/>
+      <c r="BI2" s="149"/>
+      <c r="BJ2" s="150"/>
+      <c r="BK2" s="142">
         <v>43963</v>
       </c>
-      <c r="BL2" s="122"/>
-      <c r="BM2" s="122"/>
-      <c r="BN2" s="123"/>
-      <c r="BO2" s="121">
+      <c r="BL2" s="143"/>
+      <c r="BM2" s="143"/>
+      <c r="BN2" s="144"/>
+      <c r="BO2" s="142">
         <v>43964</v>
       </c>
-      <c r="BP2" s="122"/>
-      <c r="BQ2" s="122"/>
-      <c r="BR2" s="123"/>
-      <c r="BS2" s="121">
+      <c r="BP2" s="143"/>
+      <c r="BQ2" s="143"/>
+      <c r="BR2" s="144"/>
+      <c r="BS2" s="142">
         <v>43965</v>
       </c>
-      <c r="BT2" s="122"/>
-      <c r="BU2" s="122"/>
-      <c r="BV2" s="122"/>
+      <c r="BT2" s="143"/>
+      <c r="BU2" s="143"/>
+      <c r="BV2" s="143"/>
       <c r="BW2" s="50"/>
     </row>
     <row r="3" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="149"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2022,10 +2057,10 @@
       <c r="BW3" s="68"/>
     </row>
     <row r="4" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124">
+      <c r="A4" s="169">
         <v>1</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="161" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="101"/>
@@ -2103,8 +2138,8 @@
       <c r="BW4" s="79"/>
     </row>
     <row r="5" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="106"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2180,10 +2215,10 @@
       <c r="BW5" s="80"/>
     </row>
     <row r="6" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134">
+      <c r="A6" s="164">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="134" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="88"/>
@@ -2261,8 +2296,8 @@
       <c r="BW6" s="81"/>
     </row>
     <row r="7" spans="1:75" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="147"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="106"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -2338,10 +2373,10 @@
       <c r="BW7" s="80"/>
     </row>
     <row r="8" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="124">
+      <c r="A8" s="169">
         <v>2</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="161" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="101"/>
@@ -2419,8 +2454,8 @@
       <c r="BW8" s="79"/>
     </row>
     <row r="9" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="106"/>
       <c r="D9" s="107"/>
       <c r="E9" s="17"/>
@@ -2496,10 +2531,10 @@
       <c r="BW9" s="80"/>
     </row>
     <row r="10" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="134">
+      <c r="A10" s="164">
         <v>2.1</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="134" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="88"/>
@@ -2577,8 +2612,8 @@
       <c r="BW10" s="81"/>
     </row>
     <row r="11" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="135"/>
-      <c r="B11" s="138"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="108"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2654,10 +2689,10 @@
       <c r="BW11" s="82"/>
     </row>
     <row r="12" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="135">
+      <c r="A12" s="165">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="156" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="6"/>
@@ -2735,8 +2770,8 @@
       <c r="BW12" s="82"/>
     </row>
     <row r="13" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="139"/>
+      <c r="A13" s="167"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="16"/>
       <c r="D13" s="107"/>
       <c r="E13" s="17"/>
@@ -2812,10 +2847,10 @@
       <c r="BW13" s="80"/>
     </row>
     <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="124">
+      <c r="A14" s="169">
         <v>3</v>
       </c>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="161" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4"/>
@@ -2893,8 +2928,8 @@
       <c r="BW14" s="79"/>
     </row>
     <row r="15" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="117"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="107"/>
@@ -2970,10 +3005,10 @@
       <c r="BW15" s="80"/>
     </row>
     <row r="16" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="134">
+      <c r="A16" s="164">
         <v>3.1</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="134" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="20"/>
@@ -3051,8 +3086,8 @@
       <c r="BW16" s="81"/>
     </row>
     <row r="17" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="165"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="110"/>
@@ -3128,10 +3163,10 @@
       <c r="BW17" s="82"/>
     </row>
     <row r="18" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="135">
+      <c r="A18" s="165">
         <v>3.2</v>
       </c>
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="156" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6"/>
@@ -3209,8 +3244,8 @@
       <c r="BW18" s="82"/>
     </row>
     <row r="19" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="139"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="107"/>
@@ -3286,10 +3321,10 @@
       <c r="BW19" s="80"/>
     </row>
     <row r="20" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="136">
+      <c r="A20" s="160">
         <v>4</v>
       </c>
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="161" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4"/>
@@ -3367,8 +3402,8 @@
       <c r="BW20" s="79"/>
     </row>
     <row r="21" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="137"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="158"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -3377,7 +3412,7 @@
       <c r="H21" s="107"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="125"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
@@ -3444,10 +3479,10 @@
       <c r="BW21" s="80"/>
     </row>
     <row r="22" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="141">
+      <c r="A22" s="132">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="170" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="20"/>
@@ -3525,8 +3560,8 @@
       <c r="BW22" s="81"/>
     </row>
     <row r="23" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="142"/>
-      <c r="B23" s="144"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -3602,10 +3637,10 @@
       <c r="BW23" s="82"/>
     </row>
     <row r="24" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="142">
+      <c r="A24" s="157">
         <v>4.2</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="156" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6"/>
@@ -3683,8 +3718,8 @@
       <c r="BW24" s="82"/>
     </row>
     <row r="25" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
-      <c r="B25" s="146"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="171"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -3693,7 +3728,7 @@
       <c r="H25" s="115"/>
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
-      <c r="K25" s="10"/>
+      <c r="K25" s="126"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="12"/>
@@ -3760,10 +3795,10 @@
       <c r="BW25" s="83"/>
     </row>
     <row r="26" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="136">
+      <c r="A26" s="160">
         <v>5</v>
       </c>
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="161" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="4"/>
@@ -3841,8 +3876,8 @@
       <c r="BW26" s="79"/>
     </row>
     <row r="27" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="142"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="162"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3871,18 +3906,18 @@
       <c r="AB27" s="55"/>
       <c r="AC27" s="55"/>
       <c r="AD27" s="56"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="7"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="119"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="110"/>
       <c r="AK27" s="27"/>
       <c r="AL27" s="28"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="8"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="110"/>
+      <c r="AO27" s="110"/>
+      <c r="AP27" s="124"/>
       <c r="AQ27" s="6"/>
       <c r="AR27" s="7"/>
       <c r="AS27" s="27"/>
@@ -3918,10 +3953,10 @@
       <c r="BW27" s="82"/>
     </row>
     <row r="28" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="142">
+      <c r="A28" s="157">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="156" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6"/>
@@ -3999,8 +4034,8 @@
       <c r="BW28" s="82"/>
     </row>
     <row r="29" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="142"/>
-      <c r="B29" s="144"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4076,10 +4111,10 @@
       <c r="BW29" s="82"/>
     </row>
     <row r="30" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="142">
+      <c r="A30" s="157">
         <v>5.2</v>
       </c>
-      <c r="B30" s="138" t="s">
+      <c r="B30" s="156" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="6"/>
@@ -4157,8 +4192,8 @@
       <c r="BW30" s="82"/>
     </row>
     <row r="31" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="142"/>
-      <c r="B31" s="144"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="163"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4234,10 +4269,10 @@
       <c r="BW31" s="82"/>
     </row>
     <row r="32" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="142">
+      <c r="A32" s="157">
         <v>5.3</v>
       </c>
-      <c r="B32" s="138" t="s">
+      <c r="B32" s="156" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="6"/>
@@ -4315,8 +4350,8 @@
       <c r="BW32" s="82"/>
     </row>
     <row r="33" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="142"/>
-      <c r="B33" s="138"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="156"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4392,10 +4427,10 @@
       <c r="BW33" s="82"/>
     </row>
     <row r="34" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="142">
+      <c r="A34" s="157">
         <v>5.4</v>
       </c>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="156" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="6"/>
@@ -4473,8 +4508,8 @@
       <c r="BW34" s="82"/>
     </row>
     <row r="35" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="142"/>
-      <c r="B35" s="138"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="156"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4550,10 +4585,10 @@
       <c r="BW35" s="82"/>
     </row>
     <row r="36" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="156">
+      <c r="A36" s="155">
         <v>5.5</v>
       </c>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="156" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="6"/>
@@ -4631,8 +4666,8 @@
       <c r="BW36" s="82"/>
     </row>
     <row r="37" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="156"/>
-      <c r="B37" s="138"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="156"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4661,7 +4696,7 @@
       <c r="AB37" s="55"/>
       <c r="AC37" s="55"/>
       <c r="AD37" s="56"/>
-      <c r="AE37" s="6"/>
+      <c r="AE37" s="118"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="8"/>
@@ -4708,10 +4743,10 @@
       <c r="BW37" s="82"/>
     </row>
     <row r="38" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="156">
+      <c r="A38" s="155">
         <v>5.6</v>
       </c>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="156" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6"/>
@@ -4727,7 +4762,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="8"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="7"/>
+      <c r="P38" s="117"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="28"/>
       <c r="S38" s="54"/>
@@ -4789,8 +4824,8 @@
       <c r="BW38" s="82"/>
     </row>
     <row r="39" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="156"/>
-      <c r="B39" s="138"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -4819,11 +4854,11 @@
       <c r="AB39" s="55"/>
       <c r="AC39" s="55"/>
       <c r="AD39" s="56"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
+      <c r="AE39" s="108"/>
+      <c r="AF39" s="110"/>
+      <c r="AG39" s="110"/>
       <c r="AH39" s="8"/>
-      <c r="AI39" s="6"/>
+      <c r="AI39" s="120"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="27"/>
       <c r="AL39" s="28"/>
@@ -4866,10 +4901,10 @@
       <c r="BW39" s="82"/>
     </row>
     <row r="40" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="156">
+      <c r="A40" s="155">
         <v>5.7</v>
       </c>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="156" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6"/>
@@ -4947,8 +4982,8 @@
       <c r="BW40" s="82"/>
     </row>
     <row r="41" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="156"/>
-      <c r="B41" s="138"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -4980,16 +5015,16 @@
       <c r="AE41" s="6"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="7"/>
+      <c r="AH41" s="119"/>
+      <c r="AI41" s="118"/>
+      <c r="AJ41" s="110"/>
       <c r="AK41" s="27"/>
       <c r="AL41" s="28"/>
       <c r="AM41" s="6"/>
       <c r="AN41" s="7"/>
-      <c r="AO41" s="7"/>
-      <c r="AP41" s="8"/>
-      <c r="AQ41" s="6"/>
+      <c r="AO41" s="122"/>
+      <c r="AP41" s="124"/>
+      <c r="AQ41" s="120"/>
       <c r="AR41" s="7"/>
       <c r="AS41" s="27"/>
       <c r="AT41" s="28"/>
@@ -5024,10 +5059,10 @@
       <c r="BW41" s="82"/>
     </row>
     <row r="42" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="142">
+      <c r="A42" s="157">
         <v>5.8</v>
       </c>
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="156" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="6"/>
@@ -5105,8 +5140,8 @@
       <c r="BW42" s="82"/>
     </row>
     <row r="43" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="137"/>
-      <c r="B43" s="139"/>
+      <c r="A43" s="158"/>
+      <c r="B43" s="159"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -5143,9 +5178,9 @@
       <c r="AJ43" s="17"/>
       <c r="AK43" s="31"/>
       <c r="AL43" s="32"/>
-      <c r="AM43" s="16"/>
-      <c r="AN43" s="17"/>
-      <c r="AO43" s="17"/>
+      <c r="AM43" s="106"/>
+      <c r="AN43" s="107"/>
+      <c r="AO43" s="123"/>
       <c r="AP43" s="18"/>
       <c r="AQ43" s="16"/>
       <c r="AR43" s="17"/>
@@ -5182,10 +5217,10 @@
       <c r="BW43" s="80"/>
     </row>
     <row r="44" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="136">
+      <c r="A44" s="160">
         <v>6</v>
       </c>
-      <c r="B44" s="150" t="s">
+      <c r="B44" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="4"/>
@@ -5263,8 +5298,8 @@
       <c r="BW44" s="79"/>
     </row>
     <row r="45" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="137"/>
-      <c r="B45" s="151"/>
+      <c r="A45" s="158"/>
+      <c r="B45" s="130"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -5309,10 +5344,10 @@
       <c r="AR45" s="17"/>
       <c r="AS45" s="31"/>
       <c r="AT45" s="32"/>
-      <c r="AU45" s="16"/>
-      <c r="AV45" s="17"/>
-      <c r="AW45" s="17"/>
-      <c r="AX45" s="18"/>
+      <c r="AU45" s="106"/>
+      <c r="AV45" s="107"/>
+      <c r="AW45" s="107"/>
+      <c r="AX45" s="109"/>
       <c r="AY45" s="44"/>
       <c r="AZ45" s="31"/>
       <c r="BA45" s="61"/>
@@ -5340,7 +5375,7 @@
       <c r="BW45" s="80"/>
     </row>
     <row r="46" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="152">
+      <c r="A46" s="153">
         <v>6.1</v>
       </c>
       <c r="B46" s="154" t="s">
@@ -5421,8 +5456,8 @@
       <c r="BW46" s="81"/>
     </row>
     <row r="47" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="153"/>
-      <c r="B47" s="155"/>
+      <c r="A47" s="137"/>
+      <c r="B47" s="138"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -5467,10 +5502,10 @@
       <c r="AR47" s="17"/>
       <c r="AS47" s="31"/>
       <c r="AT47" s="32"/>
-      <c r="AU47" s="16"/>
-      <c r="AV47" s="17"/>
-      <c r="AW47" s="17"/>
-      <c r="AX47" s="18"/>
+      <c r="AU47" s="106"/>
+      <c r="AV47" s="107"/>
+      <c r="AW47" s="107"/>
+      <c r="AX47" s="109"/>
       <c r="AY47" s="44"/>
       <c r="AZ47" s="31"/>
       <c r="BA47" s="61"/>
@@ -5498,10 +5533,10 @@
       <c r="BW47" s="80"/>
     </row>
     <row r="48" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="161">
+      <c r="A48" s="131">
         <v>7</v>
       </c>
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="129" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="4"/>
@@ -5579,8 +5614,8 @@
       <c r="BW48" s="79"/>
     </row>
     <row r="49" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="153"/>
-      <c r="B49" s="151"/>
+      <c r="A49" s="137"/>
+      <c r="B49" s="130"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -5656,10 +5691,10 @@
       <c r="BW49" s="80"/>
     </row>
     <row r="50" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="161">
+      <c r="A50" s="131">
         <v>7.1</v>
       </c>
-      <c r="B50" s="162" t="s">
+      <c r="B50" s="133" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="20"/>
@@ -5737,8 +5772,8 @@
       <c r="BW50" s="81"/>
     </row>
     <row r="51" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="141"/>
-      <c r="B51" s="140"/>
+      <c r="A51" s="132"/>
+      <c r="B51" s="134"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -5814,10 +5849,10 @@
       <c r="BW51" s="82"/>
     </row>
     <row r="52" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="145">
+      <c r="A52" s="135">
         <v>7.2</v>
       </c>
-      <c r="B52" s="160" t="s">
+      <c r="B52" s="136" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="6"/>
@@ -5895,8 +5930,8 @@
       <c r="BW52" s="82"/>
     </row>
     <row r="53" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="141"/>
-      <c r="B53" s="140"/>
+      <c r="A53" s="132"/>
+      <c r="B53" s="134"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -5972,10 +6007,10 @@
       <c r="BW53" s="82"/>
     </row>
     <row r="54" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="145">
+      <c r="A54" s="135">
         <v>7.3</v>
       </c>
-      <c r="B54" s="160" t="s">
+      <c r="B54" s="136" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="6"/>
@@ -6053,8 +6088,8 @@
       <c r="BW54" s="82"/>
     </row>
     <row r="55" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="141"/>
-      <c r="B55" s="140"/>
+      <c r="A55" s="132"/>
+      <c r="B55" s="134"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6130,10 +6165,10 @@
       <c r="BW55" s="82"/>
     </row>
     <row r="56" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="145">
+      <c r="A56" s="135">
         <v>7.4</v>
       </c>
-      <c r="B56" s="160" t="s">
+      <c r="B56" s="136" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="6"/>
@@ -6211,8 +6246,8 @@
       <c r="BW56" s="82"/>
     </row>
     <row r="57" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="153"/>
-      <c r="B57" s="155"/>
+      <c r="A57" s="137"/>
+      <c r="B57" s="138"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -6288,10 +6323,10 @@
       <c r="BW57" s="83"/>
     </row>
     <row r="58" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="161">
+      <c r="A58" s="131">
         <v>8</v>
       </c>
-      <c r="B58" s="150" t="s">
+      <c r="B58" s="129" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="4"/>
@@ -6369,8 +6404,8 @@
       <c r="BW58" s="79"/>
     </row>
     <row r="59" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="153"/>
-      <c r="B59" s="151"/>
+      <c r="A59" s="137"/>
+      <c r="B59" s="130"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6446,10 +6481,10 @@
       <c r="BW59" s="80"/>
     </row>
     <row r="60" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="161">
+      <c r="A60" s="131">
         <v>8.1</v>
       </c>
-      <c r="B60" s="162" t="s">
+      <c r="B60" s="133" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="4"/>
@@ -6527,8 +6562,8 @@
       <c r="BW60" s="82"/>
     </row>
     <row r="61" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="141"/>
-      <c r="B61" s="140"/>
+      <c r="A61" s="132"/>
+      <c r="B61" s="134"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6604,10 +6639,10 @@
       <c r="BW61" s="82"/>
     </row>
     <row r="62" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="145">
+      <c r="A62" s="135">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62" s="160" t="s">
+      <c r="B62" s="136" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="6"/>
@@ -6685,8 +6720,8 @@
       <c r="BW62" s="82"/>
     </row>
     <row r="63" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="141"/>
-      <c r="B63" s="140"/>
+      <c r="A63" s="132"/>
+      <c r="B63" s="134"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6762,10 +6797,10 @@
       <c r="BW63" s="82"/>
     </row>
     <row r="64" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="145">
+      <c r="A64" s="135">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B64" s="160" t="s">
+      <c r="B64" s="136" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="6"/>
@@ -6843,8 +6878,8 @@
       <c r="BW64" s="82"/>
     </row>
     <row r="65" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="141"/>
-      <c r="B65" s="140"/>
+      <c r="A65" s="132"/>
+      <c r="B65" s="134"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6920,10 +6955,10 @@
       <c r="BW65" s="82"/>
     </row>
     <row r="66" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="145">
+      <c r="A66" s="135">
         <v>8.4</v>
       </c>
-      <c r="B66" s="160" t="s">
+      <c r="B66" s="136" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="6"/>
@@ -7001,8 +7036,8 @@
       <c r="BW66" s="82"/>
     </row>
     <row r="67" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="153"/>
-      <c r="B67" s="155"/>
+      <c r="A67" s="137"/>
+      <c r="B67" s="138"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7078,10 +7113,10 @@
       <c r="BW67" s="83"/>
     </row>
     <row r="68" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="163">
+      <c r="A68" s="127">
         <v>9</v>
       </c>
-      <c r="B68" s="150" t="s">
+      <c r="B68" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="4"/>
@@ -7159,8 +7194,8 @@
       <c r="BW68" s="79"/>
     </row>
     <row r="69" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="164"/>
-      <c r="B69" s="151"/>
+      <c r="A69" s="128"/>
+      <c r="B69" s="130"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
@@ -7192,23 +7227,23 @@
       <c r="AE69" s="16"/>
       <c r="AF69" s="17"/>
       <c r="AG69" s="17"/>
-      <c r="AH69" s="18"/>
+      <c r="AH69" s="109"/>
       <c r="AI69" s="16"/>
-      <c r="AJ69" s="17"/>
+      <c r="AJ69" s="107"/>
       <c r="AK69" s="31"/>
       <c r="AL69" s="32"/>
       <c r="AM69" s="16"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="17"/>
-      <c r="AP69" s="18"/>
-      <c r="AQ69" s="16"/>
-      <c r="AR69" s="17"/>
+      <c r="AP69" s="109"/>
+      <c r="AQ69" s="106"/>
+      <c r="AR69" s="107"/>
       <c r="AS69" s="31"/>
       <c r="AT69" s="32"/>
       <c r="AU69" s="16"/>
       <c r="AV69" s="17"/>
       <c r="AW69" s="17"/>
-      <c r="AX69" s="18"/>
+      <c r="AX69" s="109"/>
       <c r="AY69" s="44"/>
       <c r="AZ69" s="31"/>
       <c r="BA69" s="61"/>
@@ -7236,10 +7271,10 @@
       <c r="BW69" s="80"/>
     </row>
     <row r="70" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="163">
+      <c r="A70" s="127">
         <v>10</v>
       </c>
-      <c r="B70" s="150" t="s">
+      <c r="B70" s="129" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="4"/>
@@ -7317,8 +7352,8 @@
       <c r="BW70" s="79"/>
     </row>
     <row r="71" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="164"/>
-      <c r="B71" s="151"/>
+      <c r="A71" s="128"/>
+      <c r="B71" s="130"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -7358,9 +7393,9 @@
       <c r="AM71" s="16"/>
       <c r="AN71" s="17"/>
       <c r="AO71" s="17"/>
-      <c r="AP71" s="18"/>
-      <c r="AQ71" s="16"/>
-      <c r="AR71" s="17"/>
+      <c r="AP71" s="109"/>
+      <c r="AQ71" s="106"/>
+      <c r="AR71" s="107"/>
       <c r="AS71" s="31"/>
       <c r="AT71" s="32"/>
       <c r="AU71" s="16"/>
@@ -7394,10 +7429,10 @@
       <c r="BW71" s="80"/>
     </row>
     <row r="72" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="163">
+      <c r="A72" s="127">
         <v>11</v>
       </c>
-      <c r="B72" s="150" t="s">
+      <c r="B72" s="129" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
@@ -7475,8 +7510,8 @@
       <c r="BW72" s="84"/>
     </row>
     <row r="73" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="164"/>
-      <c r="B73" s="151"/>
+      <c r="A73" s="128"/>
+      <c r="B73" s="130"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -7552,10 +7587,10 @@
       <c r="BW73" s="85"/>
     </row>
     <row r="74" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="163">
+      <c r="A74" s="127">
         <v>12</v>
       </c>
-      <c r="B74" s="150" t="s">
+      <c r="B74" s="129" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="6"/>
@@ -7633,8 +7668,8 @@
       <c r="BW74" s="82"/>
     </row>
     <row r="75" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="164"/>
-      <c r="B75" s="151"/>
+      <c r="A75" s="128"/>
+      <c r="B75" s="130"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -7743,46 +7778,66 @@
         <v>50</v>
       </c>
     </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="116" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="121" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="B1:B3"/>
@@ -7807,54 +7862,44 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="46" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
